--- a/biology/Zoologie/Auriglobus/Auriglobus.xlsx
+++ b/biology/Zoologie/Auriglobus/Auriglobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auriglobus est un genre de poissons de la famille des Tetraodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Auriglobus a été créé en 1999 par l'ichtyologiste suisse Maurice Kottelat avec pour espèce type Auriglobus modestus[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Auriglobus a été créé en 1999 par l'ichtyologiste suisse Maurice Kottelat avec pour espèce type Auriglobus modestus
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 septembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 septembre 2021) :
 Auriglobus amabilis (Roberts, 1982)
 Auriglobus modestus (Bleeker, 1850) - espèce type
 Auriglobus nefastus (Roberts, 1982)
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Auriglobus dérive du latin aurum, « or », et globus, « globe, sphère »[2], et fait probablement référence à la couleur doré ou vert-doré de la plupart des espèces, et globe pour la forme arrondie qu'elles prennent lorsqu'elles se gonflent d'air[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Auriglobus dérive du latin aurum, « or », et globus, « globe, sphère », et fait probablement référence à la couleur doré ou vert-doré de la plupart des espèces, et globe pour la forme arrondie qu'elles prennent lorsqu'elles se gonflent d'air.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) M Kottelat, « Nomenclature of the genera Barbodes, Cyclocheilichthys, Rasbora and Chonerhinos (Teleostei: Cyprinidae and Tetraodontidae), with comments on the definition of the first reviser », The Raffles Bulletin of Zoology, Lee Kong Chian Natural History Museum (d), vol. 47, no 2,‎ 31 décembre 1999, p. 591-600 (ISSN 0217-2445 et 2345-7600, lire en ligne)</t>
         </is>
